--- a/media/Levels/Stage03/RightWallMap.xlsx
+++ b/media/Levels/Stage03/RightWallMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erima\Desktop\授業で手に入れたItems\2年後期製作\newwww\media\Levels\Stage03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205D2F68-B56B-49B6-92EA-694447BCFA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3CF9A4-CCE6-4BAC-8D62-DCA9D719FD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6864" yWindow="1176" windowWidth="17280" windowHeight="8880" xr2:uid="{9AB8AF74-5F48-49AB-9F6A-8D112309645F}"/>
+    <workbookView xWindow="3096" yWindow="1704" windowWidth="17280" windowHeight="8880" xr2:uid="{9AB8AF74-5F48-49AB-9F6A-8D112309645F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
